--- a/biology/Botanique/Thalictrum_flavum/Thalictrum_flavum.xlsx
+++ b/biology/Botanique/Thalictrum_flavum/Thalictrum_flavum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thalictrum flavum est une espèce de plantes à fleurs de la famille des Ranunculaceae. Elle est connue sous les noms vernaculaires de Pigamon jaune ou Pigamon noircissant[1] ou autrefois sous les noms de Pigamon commun, Rue des prés, Rhubarbe des pauvres[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thalictrum flavum est une espèce de plantes à fleurs de la famille des Ranunculaceae. Elle est connue sous les noms vernaculaires de Pigamon jaune ou Pigamon noircissant ou autrefois sous les noms de Pigamon commun, Rue des prés, Rhubarbe des pauvres.
 C'est une plante originaire des montagnes à forte hygrométrie. Elle est présente en Eurasie, en passant par le Caucase et allant jusqu'à la Sibérie.
 Sa taille peut atteindre 100 cm de hauteur pour 45 cm de largeur. C'est une plante vivace à la tige haute érigée et robuste, dont les fleurs mousseuses jaunes odoriférantes s'épanouissent en été.
 </t>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fleur a un périanthe à quatre ou cinq segments, blanc-verdâtre, membraneux. Nombreuses étamines, environ deux fois la longueur des segments du périanthe. Filaments érigés, 3–5 mm de long, jaunes. Six à neuf carpelles, libres et non pédonculés, même pendant la fructification. Inflorescence : corymbe multiple[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur a un périanthe à quatre ou cinq segments, blanc-verdâtre, membraneux. Nombreuses étamines, environ deux fois la longueur des segments du périanthe. Filaments érigés, 3–5 mm de long, jaunes. Six à neuf carpelles, libres et non pédonculés, même pendant la fructification. Inflorescence : corymbe multiple. 
 La tige souterraine a de nombreuses racines adventives ; les feuilles sont alternes, engainantes, bi à tri-pennées, à limbe plus long que large.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Prairies alluviales régulièrement fauchées, les fossés.
 </t>
@@ -576,7 +592,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est présente dans presque toute l'Europe, en incluant la Belgique, la France et la Suisse.
 Sur le territoire français, elle se trouve partout sauf dans les montagnes, le sud-ouest, la Bretagne et la Corse.
@@ -609,7 +627,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pigamon jaune est sur la liste des espèces végétales protégées du Nord-Pas-de-Calais et au sud en Midi-Pyrénées, Aquitaine et dans le Centre.
 Il est signalé dans plusieurs réserves naturelles :
@@ -647,9 +667,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du grec thalleïn verdir et ictar vite, par allusion à sa rapidité de végétation[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du grec thalleïn verdir et ictar vite, par allusion à sa rapidité de végétation.
 </t>
         </is>
       </c>
@@ -678,7 +700,9 @@
           <t>Pharmacopée</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce végétale à berbérine dont l'effet anti-inflammatoire est utilisé par la pharmacopée asiatique.
 </t>
